--- a/Fase2/UML/Especificação de Use Cases/partilhaRS.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/partilhaRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadin\Documents\LI4\Trabalho-FaseII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3F87D9-3AD4-44C5-B65D-3101C8497AD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D36D7A-0D67-4CA6-BEC4-3F518BCCC4C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{C04155FA-B46C-498C-AB6A-3D5F6A814290}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C04155FA-B46C-498C-AB6A-3D5F6A814290}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -456,30 +456,30 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,7 +499,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -509,7 +509,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,7 +517,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,7 +539,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>2</v>
@@ -549,41 +549,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/Fase2/UML/Especificação de Use Cases/partilhaRS.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/partilhaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D36D7A-0D67-4CA6-BEC4-3F518BCCC4C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3753B3C8-9A2D-4D96-AD07-3F879818D985}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" xr2:uid="{C04155FA-B46C-498C-AB6A-3D5F6A814290}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Indica que pretende partilhar avaliação nas redes sociais</t>
+  </si>
+  <si>
+    <t>Informa que a partilha foi realizada com sucesso</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="51.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,9 +554,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
